--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1055,22 +1055,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Spromberg Canyon 01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Chumstick Creek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1080,17 +1080,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -1099,37 +1099,37 @@
         <v>5</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>5</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q9">
         <v>3</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="U9">
-        <v>0.7333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="V9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <v>3</v>
@@ -1138,7 +1138,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Twisp River Lower 02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Twisp River</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -1185,7 +1185,7 @@
         <v>5</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10">
         <v>5</v>
@@ -1194,34 +1194,34 @@
         <v>5</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q10">
         <v>3</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="U10">
-        <v>0.7777777777777778</v>
+        <v>0.9777777777777778</v>
       </c>
       <c r="V10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Twisp River Middle 06</t>
+          <t>Twisp River Lower 03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1231,73 +1231,239 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>Lower Twisp River</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>38</v>
+      </c>
+      <c r="U11">
+        <v>0.8444444444444444</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 04</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Middle Twisp River</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>5</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>5</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>3</v>
-      </c>
-      <c r="S11">
-        <v>3</v>
-      </c>
-      <c r="T11">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>3</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>33</v>
+      </c>
+      <c r="U12">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="V12">
+        <v>5</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 05</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>3</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
         <v>35</v>
       </c>
-      <c r="U11">
+      <c r="U13">
         <v>0.7777777777777778</v>
       </c>
-      <c r="V11">
-        <v>5</v>
-      </c>
-      <c r="W11">
+      <c r="V13">
+        <v>5</v>
+      </c>
+      <c r="W13">
         <v>3</v>
       </c>
     </row>

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,17 +640,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Entiat River Potato 06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -681,16 +681,16 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4">
         <v>5</v>
@@ -705,16 +705,16 @@
         <v>4</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="U4">
-        <v>0.7111111111111111</v>
+        <v>0.8</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W4">
         <v>3</v>
@@ -723,7 +723,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -752,43 +752,43 @@
         </is>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
       <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
         <v>4</v>
       </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
       <c r="S5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T5">
         <v>32</v>
@@ -806,17 +806,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -850,37 +850,37 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>3</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O6">
         <v>5</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T6">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U6">
-        <v>0.8</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W6">
         <v>3</v>
@@ -889,7 +889,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -939,22 +939,22 @@
         <v>3</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O7">
         <v>5</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>36</v>
@@ -972,7 +972,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1016,37 +1016,37 @@
         <v>5</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M8">
         <v>3</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>5</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U8">
-        <v>0.7555555555555555</v>
+        <v>0.8</v>
       </c>
       <c r="V8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W8">
         <v>3</v>
@@ -1055,7 +1055,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Spromberg Canyon 01</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chumstick Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="G9">
@@ -1099,37 +1099,37 @@
         <v>5</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O9">
         <v>5</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q9">
         <v>3</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U9">
-        <v>0.8666666666666667</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W9">
         <v>3</v>
@@ -1138,7 +1138,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Twisp River Lower 02</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -1182,10 +1182,10 @@
         <v>5</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>5</v>
@@ -1194,34 +1194,34 @@
         <v>5</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q10">
         <v>3</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="U10">
-        <v>0.9777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Twisp River Lower 03</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lower Twisp River</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1250,19 +1250,19 @@
         </is>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <v>5</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -1277,25 +1277,25 @@
         <v>5</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q11">
         <v>3</v>
       </c>
       <c r="R11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="U11">
-        <v>0.8444444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W11">
         <v>3</v>
@@ -1304,7 +1304,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Twisp River Middle 04</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1333,137 +1333,54 @@
         </is>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O12">
         <v>5</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <v>3</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U12">
-        <v>0.7333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V12">
         <v>5</v>
       </c>
       <c r="W12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Twisp River Middle 05</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Middle Twisp River</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="L13">
-        <v>5</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="N13">
-        <v>5</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
-      </c>
-      <c r="P13">
-        <v>3</v>
-      </c>
-      <c r="Q13">
-        <v>3</v>
-      </c>
-      <c r="R13">
-        <v>3</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>35</v>
-      </c>
-      <c r="U13">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="V13">
-        <v>5</v>
-      </c>
-      <c r="W13">
         <v>3</v>
       </c>
     </row>

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,12 +435,12 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>Riparian-CanopyCover_score</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>Riparian-Disturbance_score</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Riparian-CanopyCover_score</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -532,7 +532,7 @@
       <c r="O2">
         <v>5</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2">
@@ -607,7 +607,7 @@
         <v>5</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O3">
         <v>5</v>
@@ -625,13 +625,13 @@
         <v>3</v>
       </c>
       <c r="T3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U3">
-        <v>0.7777777777777778</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="V3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W3">
         <v>3</v>
@@ -696,10 +696,10 @@
         <v>5</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R4">
         <v>4</v>
@@ -723,17 +723,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Entiat River Potato 07</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -752,13 +752,13 @@
         </is>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -770,10 +770,10 @@
         <v>3</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <v>5</v>
@@ -788,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T5">
         <v>32</v>
@@ -806,17 +806,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -838,10 +838,10 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -850,7 +850,7 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6">
         <v>3</v>
@@ -862,22 +862,22 @@
         <v>5</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U6">
-        <v>0.7111111111111111</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V6">
         <v>5</v>
@@ -889,17 +889,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -918,40 +918,40 @@
         </is>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>5</v>
       </c>
       <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
         <v>4</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7">
-        <v>3</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-      <c r="R7">
-        <v>3</v>
       </c>
       <c r="S7">
         <v>1</v>
@@ -972,17 +972,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1016,13 +1016,13 @@
         <v>5</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>3</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O8">
         <v>5</v>
@@ -1031,22 +1031,22 @@
         <v>5</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U8">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W8">
         <v>3</v>
@@ -1055,17 +1055,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1099,34 +1099,34 @@
         <v>5</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>3</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O9">
         <v>5</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q9">
         <v>3</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U9">
-        <v>0.7555555555555555</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V9">
         <v>5</v>
@@ -1138,7 +1138,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Methow River Thompson 09</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1170,10 +1170,10 @@
         <v>3</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -1182,28 +1182,28 @@
         <v>5</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>3</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O10">
         <v>5</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q10">
         <v>3</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T10">
         <v>33</v>
@@ -1221,17 +1221,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1253,10 +1253,10 @@
         <v>3</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -1277,25 +1277,25 @@
         <v>5</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S11">
         <v>1</v>
       </c>
       <c r="T11">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U11">
-        <v>0.7777777777777778</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="V11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W11">
         <v>3</v>
@@ -1304,83 +1304,415 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Nason Creek Lower 02</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>40</v>
+      </c>
+      <c r="U12">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Nason Creek Lower 03</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Lower Nason Creek</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>36</v>
+      </c>
+      <c r="U13">
+        <v>0.8</v>
+      </c>
+      <c r="V13">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>33</v>
+      </c>
+      <c r="U14">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 02</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>35</v>
+      </c>
+      <c r="U15">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Twisp River Middle 06</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Methow</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Middle Twisp River</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G12">
-        <v>5</v>
-      </c>
-      <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
         <v>1</v>
       </c>
-      <c r="L12">
-        <v>5</v>
-      </c>
-      <c r="M12">
-        <v>5</v>
-      </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="O12">
-        <v>5</v>
-      </c>
-      <c r="P12">
-        <v>5</v>
-      </c>
-      <c r="Q12">
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
         <v>1</v>
       </c>
-      <c r="R12">
-        <v>3</v>
-      </c>
-      <c r="S12">
-        <v>3</v>
-      </c>
-      <c r="T12">
-        <v>35</v>
-      </c>
-      <c r="U12">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="V12">
-        <v>5</v>
-      </c>
-      <c r="W12">
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>37</v>
+      </c>
+      <c r="U16">
+        <v>0.8222222222222222</v>
+      </c>
+      <c r="V16">
+        <v>3</v>
+      </c>
+      <c r="W16">
         <v>3</v>
       </c>
     </row>

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,7 +723,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Entiat River Potato 07</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -764,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -779,22 +779,22 @@
         <v>5</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q5">
         <v>3</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S5">
         <v>3</v>
       </c>
       <c r="T5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U5">
-        <v>0.7111111111111111</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V5">
         <v>5</v>
@@ -806,17 +806,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -835,28 +835,28 @@
         </is>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>3</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -865,22 +865,22 @@
         <v>3</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U6">
-        <v>0.7333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="V6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W6">
         <v>3</v>
@@ -889,7 +889,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -918,52 +918,52 @@
         </is>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>5</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>5</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U7">
-        <v>0.8</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W7">
         <v>3</v>
@@ -972,7 +972,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Methow River Thompson 07</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1028,22 +1028,22 @@
         <v>5</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S8">
         <v>5</v>
       </c>
       <c r="T8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="U8">
-        <v>0.7777777777777778</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V8">
         <v>5</v>
@@ -1055,17 +1055,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1099,37 +1099,37 @@
         <v>5</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>3</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O9">
         <v>5</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q9">
         <v>3</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U9">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="V9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <v>3</v>
@@ -1138,17 +1138,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Methow River Thompson 09</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1182,13 +1182,13 @@
         <v>5</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M10">
         <v>3</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O10">
         <v>5</v>
@@ -1197,22 +1197,22 @@
         <v>5</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10">
         <v>3</v>
       </c>
       <c r="T10">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="U10">
-        <v>0.7333333333333333</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W10">
         <v>3</v>
@@ -1221,7 +1221,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1265,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M11">
         <v>3</v>
@@ -1277,25 +1277,25 @@
         <v>5</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S11">
         <v>1</v>
       </c>
       <c r="T11">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="U11">
-        <v>0.8444444444444444</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="V11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W11">
         <v>3</v>
@@ -1304,17 +1304,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1336,10 +1336,10 @@
         <v>3</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -1348,7 +1348,7 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -1360,25 +1360,25 @@
         <v>5</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="U12">
-        <v>0.8888888888888888</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W12">
         <v>3</v>
@@ -1387,17 +1387,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Middle Twisp River</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1419,10 +1419,10 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -1431,7 +1431,7 @@
         <v>5</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M13">
         <v>3</v>
@@ -1443,25 +1443,25 @@
         <v>5</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="T13">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U13">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W13">
         <v>3</v>
@@ -1470,7 +1470,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1499,25 +1499,25 @@
         </is>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14">
         <v>5</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14">
         <v>5</v>
@@ -1526,193 +1526,27 @@
         <v>5</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>3</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T14">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="U14">
-        <v>0.7333333333333333</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Twisp River Middle 02</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Middle Twisp River</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15">
-        <v>5</v>
-      </c>
-      <c r="M15">
-        <v>3</v>
-      </c>
-      <c r="N15">
-        <v>5</v>
-      </c>
-      <c r="O15">
-        <v>5</v>
-      </c>
-      <c r="P15">
-        <v>3</v>
-      </c>
-      <c r="Q15">
-        <v>3</v>
-      </c>
-      <c r="R15">
-        <v>3</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>35</v>
-      </c>
-      <c r="U15">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="V15">
-        <v>5</v>
-      </c>
-      <c r="W15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Twisp River Middle 06</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Middle Twisp River</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
-      </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>5</v>
-      </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-      <c r="N16">
-        <v>5</v>
-      </c>
-      <c r="O16">
-        <v>5</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>5</v>
-      </c>
-      <c r="R16">
-        <v>3</v>
-      </c>
-      <c r="S16">
-        <v>3</v>
-      </c>
-      <c r="T16">
-        <v>37</v>
-      </c>
-      <c r="U16">
-        <v>0.8222222222222222</v>
-      </c>
-      <c r="V16">
-        <v>3</v>
-      </c>
-      <c r="W16">
         <v>3</v>
       </c>
     </row>

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,12 +420,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Off-Channel-Floodplain_score</t>
+          <t>FloodplainConnectivity_score</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Off-Channel-Side-Channels_score</t>
+          <t>Off-Channel/Side-Channels_score</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -557,7 +557,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Mills 05</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Entiat River-Mills Creek</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -604,34 +604,34 @@
         <v>5</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <v>3</v>
       </c>
       <c r="R3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3">
         <v>3</v>
       </c>
       <c r="T3">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U3">
-        <v>0.8666666666666667</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="V3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W3">
         <v>3</v>
@@ -640,7 +640,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Entiat River Potato 06</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -681,16 +681,16 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O4">
         <v>5</v>
@@ -699,19 +699,19 @@
         <v>3</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S4">
         <v>3</v>
       </c>
       <c r="T4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U4">
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="V4">
         <v>3</v>
@@ -723,7 +723,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Entiat River Potato 06</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -752,13 +752,13 @@
         </is>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -782,22 +782,22 @@
         <v>3</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S5">
         <v>3</v>
       </c>
       <c r="T5">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U5">
-        <v>0.7333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="V5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -806,17 +806,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Entiat</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -835,28 +835,28 @@
         </is>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>3</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -865,22 +865,22 @@
         <v>3</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T6">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="U6">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W6">
         <v>3</v>
@@ -889,7 +889,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Methow River Thompson 07</t>
+          <t>Methow River Fawn 02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -930,10 +930,10 @@
         <v>5</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <v>3</v>
@@ -948,13 +948,13 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>32</v>
@@ -972,7 +972,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1001,52 +1001,52 @@
         </is>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
       <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
         <v>4</v>
       </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
       <c r="S8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="U8">
-        <v>0.7111111111111111</v>
+        <v>0.8</v>
       </c>
       <c r="V8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W8">
         <v>3</v>
@@ -1055,17 +1055,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1099,37 +1099,37 @@
         <v>5</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <v>3</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O9">
         <v>5</v>
       </c>
       <c r="P9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>3</v>
       </c>
       <c r="R9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="U9">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W9">
         <v>3</v>
@@ -1138,17 +1138,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1182,37 +1182,37 @@
         <v>5</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <v>3</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O10">
         <v>5</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="U10">
-        <v>0.8888888888888888</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W10">
         <v>3</v>
@@ -1221,7 +1221,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1265,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11">
         <v>3</v>
@@ -1280,22 +1280,22 @@
         <v>3</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11">
         <v>1</v>
       </c>
       <c r="T11">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="U11">
-        <v>0.7555555555555555</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W11">
         <v>3</v>
@@ -1304,17 +1304,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1336,10 +1336,10 @@
         <v>3</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -1348,7 +1348,7 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <v>3</v>
@@ -1360,25 +1360,25 @@
         <v>5</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T12">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="U12">
-        <v>0.7333333333333333</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W12">
         <v>3</v>
@@ -1387,17 +1387,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Twisp River Middle 02</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Middle Twisp River</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1419,10 +1419,10 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -1431,7 +1431,7 @@
         <v>5</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M13">
         <v>3</v>
@@ -1446,10 +1446,10 @@
         <v>3</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S13">
         <v>1</v>
@@ -1470,83 +1470,481 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Salmon 16-11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>0.872302720070069</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Salmon 16-6</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>0.7830164640163568</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Salmon 16-9</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Salmon Creek-Lower</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>0.7892917935080431</v>
+      </c>
+      <c r="V16">
+        <v>5</v>
+      </c>
+      <c r="W16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Tonasket 16-2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Okanogan</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Tonasket Creek DS</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 01</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>33</v>
+      </c>
+      <c r="U18">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="V18">
+        <v>5</v>
+      </c>
+      <c r="W18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Twisp River Middle 02</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Methow</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>5</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>35</v>
+      </c>
+      <c r="U19">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="V19">
+        <v>5</v>
+      </c>
+      <c r="W19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Twisp River Middle 06</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Methow</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Middle Twisp River</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>5</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="N14">
-        <v>5</v>
-      </c>
-      <c r="O14">
-        <v>5</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>5</v>
-      </c>
-      <c r="R14">
-        <v>3</v>
-      </c>
-      <c r="S14">
-        <v>3</v>
-      </c>
-      <c r="T14">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
         <v>37</v>
       </c>
-      <c r="U14">
+      <c r="U20">
         <v>0.8222222222222222</v>
       </c>
-      <c r="V14">
-        <v>3</v>
-      </c>
-      <c r="W14">
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
         <v>3</v>
       </c>
     </row>

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -557,7 +557,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Entiat River Mills 05</t>
+          <t>Entiat River Potato 05</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Entiat River-Mills Creek</t>
+          <t>Entiat River-Potato Creek</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -604,34 +604,34 @@
         <v>5</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q3">
         <v>3</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S3">
         <v>3</v>
       </c>
       <c r="T3">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="U3">
-        <v>0.7111111111111111</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="V3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W3">
         <v>3</v>
@@ -640,7 +640,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Entiat River Potato 05</t>
+          <t>Entiat River Potato 06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -681,16 +681,16 @@
         <v>5</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O4">
         <v>5</v>
@@ -699,19 +699,19 @@
         <v>3</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S4">
         <v>3</v>
       </c>
       <c r="T4">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U4">
-        <v>0.8666666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="V4">
         <v>3</v>
@@ -723,7 +723,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Entiat River Potato 06</t>
+          <t>Entiat River Potato 08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -752,13 +752,13 @@
         </is>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>5</v>
@@ -782,22 +782,22 @@
         <v>3</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S5">
         <v>3</v>
       </c>
       <c r="T5">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="U5">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -806,17 +806,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Entiat River Potato 08</t>
+          <t>Methow River Fawn 04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Entiat</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Entiat River-Potato Creek</t>
+          <t>Methow River-Fawn Creek</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -835,28 +835,28 @@
         </is>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>3</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -865,22 +865,22 @@
         <v>3</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U6">
-        <v>0.7333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="V6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W6">
         <v>3</v>
@@ -889,7 +889,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Methow River Fawn 02</t>
+          <t>Methow River Thompson 07</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -930,10 +930,10 @@
         <v>5</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>3</v>
@@ -948,19 +948,19 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U7">
-        <v>0.7111111111111111</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V7">
         <v>5</v>
@@ -972,7 +972,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Methow River Fawn 04</t>
+          <t>Methow River Thompson 08</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Methow River-Fawn Creek</t>
+          <t>Methow River-Thompson Creek</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1001,52 +1001,52 @@
         </is>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>5</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O8">
         <v>5</v>
       </c>
       <c r="P8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T8">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="U8">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W8">
         <v>3</v>
@@ -1055,17 +1055,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Methow River Thompson 07</t>
+          <t>Nason Creek Lower 01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1099,37 +1099,37 @@
         <v>5</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>3</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O9">
         <v>5</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="U9">
-        <v>0.7333333333333333</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <v>3</v>
@@ -1138,17 +1138,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Methow River Thompson 08</t>
+          <t>Nason Creek Lower 02</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Methow</t>
+          <t>Wenatchee</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Methow River-Thompson Creek</t>
+          <t>Lower Nason Creek</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1182,37 +1182,37 @@
         <v>5</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M10">
         <v>3</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O10">
         <v>5</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T10">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="U10">
-        <v>0.7333333333333333</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="V10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W10">
         <v>3</v>
@@ -1221,7 +1221,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 01</t>
+          <t>Nason Creek Lower 03</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1265,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M11">
         <v>3</v>
@@ -1289,13 +1289,13 @@
         <v>1</v>
       </c>
       <c r="T11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U11">
-        <v>0.8222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W11">
         <v>3</v>
@@ -1304,22 +1304,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 02</t>
+          <t>Salmon 16-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>yes</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1327,55 +1322,38 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="G12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K12">
         <v>5</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>3</v>
-      </c>
-      <c r="N12">
-        <v>5</v>
-      </c>
-      <c r="O12">
         <v>5</v>
       </c>
       <c r="P12">
-        <v>5</v>
-      </c>
-      <c r="Q12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S12">
-        <v>3</v>
-      </c>
-      <c r="T12">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0.8888888888888888</v>
+        <v>0.872302720070069</v>
       </c>
       <c r="V12">
         <v>3</v>
@@ -1387,22 +1365,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nason Creek Lower 03</t>
+          <t>Salmon 16-6</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Okanogan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lower Nason Creek</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>yes</t>
+          <t>Salmon Creek-Lower</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1410,55 +1383,38 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
       <c r="G13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13">
         <v>5</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="N13">
-        <v>5</v>
-      </c>
-      <c r="O13">
         <v>5</v>
       </c>
       <c r="P13">
-        <v>3</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
-      <c r="T13">
-        <v>35</v>
-      </c>
       <c r="U13">
-        <v>0.7777777777777778</v>
+        <v>0.7830164640163568</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -1470,7 +1426,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Salmon 16-11</t>
+          <t>Salmon 16-9</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1501,25 +1457,28 @@
         <v>3</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
-      <c r="Q14">
-        <v>3</v>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S14">
         <v>1</v>
       </c>
       <c r="U14">
-        <v>0.872302720070069</v>
+        <v>0.7892917935080431</v>
       </c>
       <c r="V14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W14">
         <v>3</v>
@@ -1528,7 +1487,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Salmon 16-6</t>
+          <t>Tonasket 16-2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1538,7 +1497,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Tonasket Creek DS</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1559,44 +1518,52 @@
         <v>3</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S15">
         <v>1</v>
       </c>
       <c r="U15">
-        <v>0.7830164640163568</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Salmon 16-9</t>
+          <t>Twisp River Middle 01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Salmon Creek-Lower</t>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1604,35 +1571,55 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="G16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <v>3</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
+      <c r="T16">
+        <v>33</v>
+      </c>
       <c r="U16">
-        <v>0.7892917935080431</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="V16">
         <v>5</v>
@@ -1644,17 +1631,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tonasket 16-2</t>
+          <t>Twisp River Middle 02</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Okanogan</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tonasket Creek DS</t>
+          <t>Middle Twisp River</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1662,23 +1654,40 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
       <c r="G17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
       </c>
       <c r="Q17">
         <v>3</v>
@@ -1689,20 +1698,23 @@
       <c r="S17">
         <v>1</v>
       </c>
+      <c r="T17">
+        <v>35</v>
+      </c>
       <c r="U17">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W17">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Twisp River Middle 01</t>
+          <t>Twisp River Middle 06</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1731,25 +1743,25 @@
         </is>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>5</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18">
         <v>5</v>
@@ -1758,193 +1770,27 @@
         <v>5</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>3</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="U18">
-        <v>0.7333333333333333</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="V18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Twisp River Middle 02</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Middle Twisp River</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>5</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-      <c r="L19">
-        <v>5</v>
-      </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-      <c r="N19">
-        <v>5</v>
-      </c>
-      <c r="O19">
-        <v>5</v>
-      </c>
-      <c r="P19">
-        <v>3</v>
-      </c>
-      <c r="Q19">
-        <v>3</v>
-      </c>
-      <c r="R19">
-        <v>3</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>35</v>
-      </c>
-      <c r="U19">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="V19">
-        <v>5</v>
-      </c>
-      <c r="W19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Twisp River Middle 06</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Methow</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Middle Twisp River</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>5</v>
-      </c>
-      <c r="M20">
-        <v>5</v>
-      </c>
-      <c r="N20">
-        <v>5</v>
-      </c>
-      <c r="O20">
-        <v>5</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>5</v>
-      </c>
-      <c r="R20">
-        <v>3</v>
-      </c>
-      <c r="S20">
-        <v>3</v>
-      </c>
-      <c r="T20">
-        <v>37</v>
-      </c>
-      <c r="U20">
-        <v>0.8222222222222222</v>
-      </c>
-      <c r="V20">
-        <v>3</v>
-      </c>
-      <c r="W20">
         <v>3</v>
       </c>
     </row>

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">Chewuch River Thirtymile 05</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Potato 03</t>
+    <t xml:space="preserve">Entiat River Potato 05</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat</t>
@@ -137,9 +137,6 @@
     <t xml:space="preserve">Entiat River-Potato Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Potato 05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entiat River Potato 06</t>
   </si>
   <si>
@@ -158,19 +155,19 @@
     <t xml:space="preserve">Entiat River-Lake Creek</t>
   </si>
   <si>
+    <t xml:space="preserve">Hancock Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Fawn Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mad River Lower 04</t>
   </si>
   <si>
     <t xml:space="preserve">Lower Mad River</t>
   </si>
   <si>
-    <t xml:space="preserve">Mad River Lower 09</t>
-  </si>
-  <si>
     <t xml:space="preserve">Methow River Fawn 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Fawn Creek</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River Rattlesnake 01</t>
@@ -1261,13 +1258,13 @@
         <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
         <v>5</v>
@@ -1276,37 +1273,37 @@
         <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" t="n">
         <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
         <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="U10" t="n">
-        <v>0.711111111111111</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="V10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W10" t="n">
         <v>3</v>
@@ -1344,16 +1341,16 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
         <v>5</v>
@@ -1362,19 +1359,19 @@
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="U11" t="n">
-        <v>0.866666666666667</v>
+        <v>0.8</v>
       </c>
       <c r="V11" t="n">
         <v>3</v>
@@ -1403,13 +1400,13 @@
         <v>26</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -1433,22 +1430,22 @@
         <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S12" t="n">
         <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="U12" t="n">
-        <v>0.8</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="V12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W12" t="n">
         <v>3</v>
@@ -1462,7 +1459,7 @@
         <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -1527,13 +1524,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
@@ -1548,22 +1545,22 @@
         <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
         <v>3</v>
@@ -1572,25 +1569,25 @@
         <v>5</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T14" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U14" t="n">
-        <v>0.733333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="V14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W14" t="n">
         <v>3</v>
@@ -1598,13 +1595,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1616,40 +1613,38 @@
         <v>26</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H15"/>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>5</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -1669,13 +1664,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1740,13 +1735,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1770,37 +1765,37 @@
         <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
         <v>5</v>
       </c>
       <c r="R17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U17" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="V17" t="n">
         <v>3</v>
@@ -1811,13 +1806,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1829,13 +1824,13 @@
         <v>26</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>5</v>
@@ -1844,10 +1839,10 @@
         <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
         <v>5</v>
@@ -1856,25 +1851,25 @@
         <v>5</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T18" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U18" t="n">
-        <v>0.8</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="V18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W18" t="n">
         <v>3</v>
@@ -1882,13 +1877,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1900,52 +1895,52 @@
         <v>26</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
         <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" t="n">
         <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
         <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
       </c>
       <c r="T19" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="U19" t="n">
-        <v>0.711111111111111</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="V19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W19" t="n">
         <v>3</v>
@@ -1959,7 +1954,7 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1983,10 +1978,10 @@
         <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
@@ -1995,31 +1990,31 @@
         <v>5</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
       </c>
       <c r="T20" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="U20" t="n">
-        <v>0.822222222222222</v>
+        <v>0.911111111111111</v>
       </c>
       <c r="V20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2030,7 +2025,7 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -2042,13 +2037,13 @@
         <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
         <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
         <v>5</v>
@@ -2060,48 +2055,48 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
         <v>5</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
       </c>
       <c r="T21" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="U21" t="n">
-        <v>0.911111111111111</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -2169,10 +2164,10 @@
         <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -2199,37 +2194,37 @@
         <v>5</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O23" t="n">
         <v>5</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="U23" t="n">
-        <v>0.733333333333333</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="V23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W23" t="n">
         <v>3</v>
@@ -2237,13 +2232,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
@@ -2282,22 +2277,22 @@
         <v>5</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
         <v>5</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T24" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U24" t="n">
-        <v>0.822222222222222</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="V24" t="n">
         <v>3</v>
@@ -2314,7 +2309,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -2353,22 +2348,22 @@
         <v>5</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
         <v>5</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="U25" t="n">
-        <v>0.888888888888889</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="V25" t="n">
         <v>3</v>
@@ -2382,64 +2377,52 @@
         <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D26"/>
       <c r="E26" t="s">
         <v>26</v>
       </c>
-      <c r="F26" t="s">
-        <v>26</v>
-      </c>
+      <c r="F26"/>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
         <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
         <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
-      </c>
-      <c r="N26" t="n">
-        <v>5</v>
-      </c>
-      <c r="O26" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N26"/>
+      <c r="O26"/>
       <c r="P26" t="n">
         <v>3</v>
       </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q26"/>
       <c r="R26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
       </c>
-      <c r="T26" t="n">
-        <v>37</v>
-      </c>
+      <c r="T26"/>
       <c r="U26" t="n">
-        <v>0.822222222222222</v>
+        <v>0.872302720070069</v>
       </c>
       <c r="V26" t="n">
         <v>3</v>
@@ -2450,13 +2433,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>65</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
@@ -2487,21 +2470,21 @@
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q27"/>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
       </c>
       <c r="T27"/>
       <c r="U27" t="n">
-        <v>0.872302720070069</v>
+        <v>0.783016464016357</v>
       </c>
       <c r="V27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W27" t="n">
         <v>3</v>
@@ -2512,10 +2495,10 @@
         <v>67</v>
       </c>
       <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
         <v>65</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
@@ -2535,7 +2518,7 @@
         <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
         <v>1</v>
@@ -2557,7 +2540,7 @@
       </c>
       <c r="T28"/>
       <c r="U28" t="n">
-        <v>0.783016464016357</v>
+        <v>0.789291793508043</v>
       </c>
       <c r="V28" t="n">
         <v>5</v>
@@ -2571,10 +2554,10 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
@@ -2597,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
@@ -2605,41 +2588,45 @@
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q29"/>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
       </c>
       <c r="T29"/>
       <c r="U29" t="n">
-        <v>0.789291793508043</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30"/>
+        <v>71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
       <c r="E30" t="s">
         <v>26</v>
       </c>
-      <c r="F30"/>
+      <c r="F30" t="s">
+        <v>26</v>
+      </c>
       <c r="G30" t="n">
         <v>5</v>
       </c>
@@ -2650,32 +2637,40 @@
         <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
-      <c r="N30"/>
-      <c r="O30"/>
+      <c r="N30" t="n">
+        <v>5</v>
+      </c>
+      <c r="O30" t="n">
+        <v>5</v>
+      </c>
       <c r="P30" t="n">
         <v>3</v>
       </c>
-      <c r="Q30"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
-      </c>
-      <c r="T30"/>
+        <v>5</v>
+      </c>
+      <c r="T30" t="n">
+        <v>44</v>
+      </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="V30" t="n">
         <v>1</v>
@@ -2686,13 +2681,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
         <v>26</v>
@@ -2704,13 +2699,13 @@
         <v>26</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
         <v>5</v>
@@ -2722,7 +2717,7 @@
         <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N31" t="n">
         <v>5</v>
@@ -2734,36 +2729,36 @@
         <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="U31" t="n">
-        <v>0.977777777777778</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
         <v>26</v>
@@ -2834,7 +2829,7 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
@@ -2846,25 +2841,25 @@
         <v>26</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
         <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N33" t="n">
         <v>5</v>
@@ -2873,25 +2868,25 @@
         <v>5</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R33" t="n">
         <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U33" t="n">
-        <v>0.777777777777778</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="V33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W33" t="n">
         <v>3</v>
@@ -2905,7 +2900,7 @@
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
@@ -2941,7 +2936,7 @@
         <v>5</v>
       </c>
       <c r="O34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -2953,7 +2948,7 @@
         <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T34" t="n">
         <v>37</v>
@@ -2970,13 +2965,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
@@ -3047,7 +3042,7 @@
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
@@ -3080,28 +3075,28 @@
         <v>5</v>
       </c>
       <c r="N36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
         <v>5</v>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
       </c>
       <c r="T36" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U36" t="n">
-        <v>0.822222222222222</v>
+        <v>0.844444444444444</v>
       </c>
       <c r="V36" t="n">
         <v>3</v>
@@ -3115,10 +3110,10 @@
         <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D37" t="s">
         <v>26</v>
@@ -3142,37 +3137,37 @@
         <v>5</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O37" t="n">
         <v>5</v>
       </c>
       <c r="P37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q37" t="n">
         <v>5</v>
       </c>
       <c r="R37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U37" t="n">
-        <v>0.844444444444444</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="V37" t="n">
         <v>3</v>
@@ -3183,13 +3178,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
@@ -3213,7 +3208,7 @@
         <v>5</v>
       </c>
       <c r="K38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
@@ -3225,28 +3220,28 @@
         <v>5</v>
       </c>
       <c r="O38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
         <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T38" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="U38" t="n">
-        <v>0.822222222222222</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="V38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W38" t="n">
         <v>3</v>
@@ -3257,10 +3252,10 @@
         <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
         <v>26</v>
@@ -3284,7 +3279,7 @@
         <v>5</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
@@ -3293,10 +3288,10 @@
         <v>5</v>
       </c>
       <c r="N39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -3308,7 +3303,7 @@
         <v>4</v>
       </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T39" t="n">
         <v>32</v>
@@ -3325,13 +3320,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
@@ -3355,19 +3350,19 @@
         <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -3382,87 +3377,16 @@
         <v>5</v>
       </c>
       <c r="T40" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="U40" t="n">
-        <v>0.711111111111111</v>
+        <v>0.977777777777778</v>
       </c>
       <c r="V40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W40" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="n">
-        <v>5</v>
-      </c>
-      <c r="H41" t="n">
-        <v>5</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>5</v>
-      </c>
-      <c r="K41" t="n">
-        <v>5</v>
-      </c>
-      <c r="L41" t="n">
-        <v>5</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" t="n">
-        <v>5</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
-      <c r="T41" t="n">
-        <v>40</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="V41" t="n">
-        <v>3</v>
-      </c>
-      <c r="W41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -2397,18 +2397,18 @@
         <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K26"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
-      <c r="N26"/>
+      <c r="N26" t="n">
+        <v>5</v>
+      </c>
       <c r="O26"/>
       <c r="P26" t="n">
         <v>3</v>
@@ -2456,10 +2456,10 @@
         <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
@@ -2467,7 +2467,9 @@
       <c r="M27" t="n">
         <v>5</v>
       </c>
-      <c r="N27"/>
+      <c r="N27" t="n">
+        <v>5</v>
+      </c>
       <c r="O27"/>
       <c r="P27" t="n">
         <v>1</v>
@@ -2515,7 +2517,7 @@
         <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
         <v>3</v>
@@ -2526,7 +2528,9 @@
       <c r="M28" t="n">
         <v>5</v>
       </c>
-      <c r="N28"/>
+      <c r="N28" t="n">
+        <v>5</v>
+      </c>
       <c r="O28"/>
       <c r="P28" t="n">
         <v>1</v>
@@ -2574,18 +2578,18 @@
         <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K29"/>
       <c r="L29" t="n">
         <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
-      <c r="N29"/>
+      <c r="N29" t="n">
+        <v>3</v>
+      </c>
       <c r="O29"/>
       <c r="P29" t="n">
         <v>3</v>

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -95,7 +95,10 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River Doe 04</t>
+    <t xml:space="preserve">Big Meadow Creek 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Doe 05</t>
   </si>
   <si>
     <t xml:space="preserve">Methow</t>
@@ -104,9 +107,6 @@
     <t xml:space="preserve">Chewuch River-Doe Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River Doe 05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chewuch River Pearrygin 08</t>
   </si>
   <si>
@@ -128,6 +128,12 @@
     <t xml:space="preserve">Chewuch River Thirtymile 05</t>
   </si>
   <si>
+    <t xml:space="preserve">Chiwawa River Middle 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Chiwawa River</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Potato 05</t>
   </si>
   <si>
@@ -149,24 +155,12 @@
     <t xml:space="preserve">Entiat River-Preston Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River Preston 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Lake Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hancock Creek 01</t>
   </si>
   <si>
     <t xml:space="preserve">Methow River-Fawn Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Mad River Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Mad River</t>
-  </si>
-  <si>
     <t xml:space="preserve">Methow River Fawn 04</t>
   </si>
   <si>
@@ -191,6 +185,12 @@
     <t xml:space="preserve">Methow River Thompson 08</t>
   </si>
   <si>
+    <t xml:space="preserve">Mill Creek Peshastin 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Peshastin Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nason Creek Lower 01</t>
   </si>
   <si>
@@ -258,9 +258,6 @@
   </si>
   <si>
     <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 02</t>
   </si>
   <si>
     <t xml:space="preserve">Wolf Creek 02</t>
@@ -718,7 +715,9 @@
       <c r="O2" t="n">
         <v>5</v>
       </c>
-      <c r="P2"/>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
       <c r="Q2" t="n">
         <v>1</v>
       </c>
@@ -746,10 +745,10 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -785,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q3" t="n">
         <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U3" t="n">
-        <v>0.711111111111111</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="V3" t="n">
         <v>5</v>
@@ -814,13 +813,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -888,7 +887,7 @@
         <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -930,22 +929,22 @@
         <v>5</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U5" t="n">
-        <v>0.755555555555556</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="V5" t="n">
         <v>5</v>
@@ -959,7 +958,7 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -1030,7 +1029,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -1057,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
@@ -1084,16 +1083,16 @@
         <v>5</v>
       </c>
       <c r="T7" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U7" t="n">
-        <v>0.911111111111111</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1101,7 +1100,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -1137,7 +1136,7 @@
         <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -1155,13 +1154,13 @@
         <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U8" t="n">
-        <v>0.822222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W8" t="n">
         <v>3</v>
@@ -1172,7 +1171,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1243,11 +1242,11 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
@@ -1270,7 +1269,7 @@
         <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>5</v>
@@ -1279,31 +1278,31 @@
         <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T10" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U10" t="n">
-        <v>0.866666666666667</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="V10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W10" t="n">
         <v>3</v>
@@ -1311,13 +1310,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -1341,37 +1340,37 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O11" t="n">
         <v>5</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U11" t="n">
-        <v>0.8</v>
+        <v>0.844444444444444</v>
       </c>
       <c r="V11" t="n">
         <v>3</v>
@@ -1382,14 +1381,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
@@ -1400,13 +1399,13 @@
         <v>26</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -1427,10 +1426,10 @@
         <v>5</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
         <v>3</v>
@@ -1439,10 +1438,10 @@
         <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U12" t="n">
-        <v>0.733333333333333</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V12" t="n">
         <v>5</v>
@@ -1453,13 +1452,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
@@ -1498,22 +1497,22 @@
         <v>5</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
         <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U13" t="n">
-        <v>0.733333333333333</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="V13" t="n">
         <v>5</v>
@@ -1527,7 +1526,7 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
@@ -1545,22 +1544,22 @@
         <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
         <v>3</v>
@@ -1569,25 +1568,25 @@
         <v>5</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U14" t="n">
-        <v>0.8</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="V14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W14" t="n">
         <v>3</v>
@@ -1598,7 +1597,7 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>48</v>
@@ -1638,25 +1637,25 @@
         <v>5</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
       </c>
       <c r="T15" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U15" t="n">
-        <v>0.8</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W15" t="n">
         <v>3</v>
@@ -1667,10 +1666,10 @@
         <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -1694,19 +1693,19 @@
         <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -1718,16 +1717,16 @@
         <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U16" t="n">
-        <v>0.822222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W16" t="n">
         <v>3</v>
@@ -1735,14 +1734,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
-      </c>
       <c r="D17" t="s">
         <v>26</v>
       </c>
@@ -1753,13 +1752,13 @@
         <v>26</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>5</v>
@@ -1768,10 +1767,10 @@
         <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>5</v>
@@ -1780,25 +1779,25 @@
         <v>5</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T17" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="U17" t="n">
-        <v>0.8</v>
+        <v>0.711111111111111</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W17" t="n">
         <v>3</v>
@@ -1809,10 +1808,10 @@
         <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
@@ -1824,31 +1823,31 @@
         <v>26</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
         <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="n">
         <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -1863,13 +1862,13 @@
         <v>5</v>
       </c>
       <c r="T18" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="U18" t="n">
-        <v>0.711111111111111</v>
+        <v>0.8</v>
       </c>
       <c r="V18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W18" t="n">
         <v>3</v>
@@ -1877,13 +1876,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1907,10 +1906,10 @@
         <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
@@ -1919,13 +1918,13 @@
         <v>5</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R19" t="n">
         <v>3</v>
@@ -1934,10 +1933,10 @@
         <v>5</v>
       </c>
       <c r="T19" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U19" t="n">
-        <v>0.822222222222222</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="V19" t="n">
         <v>3</v>
@@ -1948,14 +1947,14 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
         <v>55</v>
       </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
@@ -1966,13 +1965,13 @@
         <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
@@ -1984,37 +1983,37 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
         <v>5</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
       </c>
       <c r="T20" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="U20" t="n">
-        <v>0.911111111111111</v>
+        <v>0.733333333333333</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -2022,10 +2021,10 @@
         <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -2090,14 +2089,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
         <v>58</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
       <c r="D22" t="s">
         <v>26</v>
       </c>
@@ -2108,13 +2107,13 @@
         <v>26</v>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
         <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
         <v>5</v>
@@ -2129,7 +2128,7 @@
         <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O22" t="n">
         <v>5</v>
@@ -2138,19 +2137,19 @@
         <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U22" t="n">
-        <v>0.733333333333333</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V22" t="n">
         <v>5</v>
@@ -2206,22 +2205,22 @@
         <v>5</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
         <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U23" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="V23" t="n">
         <v>3</v>
@@ -2277,22 +2276,22 @@
         <v>5</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
         <v>5</v>
       </c>
       <c r="R24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
         <v>3</v>
       </c>
       <c r="T24" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U24" t="n">
-        <v>0.888888888888889</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="V24" t="n">
         <v>3</v>
@@ -2348,22 +2347,22 @@
         <v>5</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>5</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
       </c>
       <c r="T25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U25" t="n">
-        <v>0.822222222222222</v>
+        <v>0.8</v>
       </c>
       <c r="V25" t="n">
         <v>3</v>
@@ -2409,7 +2408,9 @@
       <c r="N26" t="n">
         <v>5</v>
       </c>
-      <c r="O26"/>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
       <c r="P26" t="n">
         <v>3</v>
       </c>
@@ -2470,7 +2471,9 @@
       <c r="N27" t="n">
         <v>5</v>
       </c>
-      <c r="O27"/>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
       <c r="P27" t="n">
         <v>1</v>
       </c>
@@ -2531,7 +2534,9 @@
       <c r="N28" t="n">
         <v>5</v>
       </c>
-      <c r="O28"/>
+      <c r="O28" t="n">
+        <v>5</v>
+      </c>
       <c r="P28" t="n">
         <v>1</v>
       </c>
@@ -2590,7 +2595,9 @@
       <c r="N29" t="n">
         <v>3</v>
       </c>
-      <c r="O29"/>
+      <c r="O29" t="n">
+        <v>5</v>
+      </c>
       <c r="P29" t="n">
         <v>3</v>
       </c>
@@ -2617,7 +2624,7 @@
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
         <v>71</v>
@@ -2659,22 +2666,22 @@
         <v>5</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
       </c>
       <c r="T30" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U30" t="n">
-        <v>0.977777777777778</v>
+        <v>0.955555555555556</v>
       </c>
       <c r="V30" t="n">
         <v>1</v>
@@ -2688,7 +2695,7 @@
         <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>73</v>
@@ -2730,22 +2737,22 @@
         <v>5</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
         <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
       </c>
       <c r="T31" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U31" t="n">
-        <v>0.777777777777778</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="V31" t="n">
         <v>5</v>
@@ -2759,7 +2766,7 @@
         <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>73</v>
@@ -2801,22 +2808,22 @@
         <v>5</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
         <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
       </c>
       <c r="T32" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U32" t="n">
-        <v>0.777777777777778</v>
+        <v>0.755555555555556</v>
       </c>
       <c r="V32" t="n">
         <v>5</v>
@@ -2830,7 +2837,7 @@
         <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
         <v>73</v>
@@ -2901,7 +2908,7 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
         <v>77</v>
@@ -2972,7 +2979,7 @@
         <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
         <v>77</v>
@@ -3043,7 +3050,7 @@
         <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
         <v>71</v>
@@ -3156,25 +3163,25 @@
         <v>5</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
         <v>5</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
         <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U37" t="n">
-        <v>0.822222222222222</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="V37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W37" t="n">
         <v>3</v>
@@ -3185,10 +3192,10 @@
         <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
@@ -3212,7 +3219,7 @@
         <v>5</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
@@ -3221,10 +3228,10 @@
         <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -3236,7 +3243,7 @@
         <v>4</v>
       </c>
       <c r="S38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T38" t="n">
         <v>32</v>
@@ -3253,14 +3260,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
         <v>83</v>
       </c>
-      <c r="B39" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" t="s">
-        <v>84</v>
-      </c>
       <c r="D39" t="s">
         <v>26</v>
       </c>
@@ -3286,111 +3293,40 @@
         <v>3</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
       </c>
       <c r="T39" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="U39" t="n">
-        <v>0.711111111111111</v>
+        <v>0.822222222222222</v>
       </c>
       <c r="V39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W39" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G40" t="n">
-        <v>5</v>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
-      <c r="I40" t="n">
-        <v>5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>5</v>
-      </c>
-      <c r="K40" t="n">
-        <v>5</v>
-      </c>
-      <c r="L40" t="n">
-        <v>5</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="n">
-        <v>5</v>
-      </c>
-      <c r="O40" t="n">
-        <v>5</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
-      <c r="T40" t="n">
-        <v>44</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0.977777777777778</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1</v>
-      </c>
-      <c r="W40" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
+++ b/Output/Steelhead_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee_OKanogan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t xml:space="preserve">ReachName</t>
   </si>
@@ -32,15 +32,6 @@
     <t xml:space="preserve">Bull.Trout.Reach</t>
   </si>
   <si>
-    <t xml:space="preserve">BankStability_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChannelStability_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stability_Mean</t>
-  </si>
-  <si>
     <t xml:space="preserve">CoarseSubstrate_score</t>
   </si>
   <si>
@@ -113,12 +104,15 @@
     <t xml:space="preserve">Chewuch River-Pearrygin Creek</t>
   </si>
   <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chewuch River Thirtymile 02</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chewuch River Thirtymile 03</t>
   </si>
   <si>
@@ -146,6 +140,9 @@
     <t xml:space="preserve">Entiat River Potato 06</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Potato 07</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Potato 08</t>
   </si>
   <si>
@@ -260,13 +257,10 @@
     <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
   </si>
   <si>
-    <t xml:space="preserve">Wolf Creek 02</t>
+    <t xml:space="preserve">Wolf Creek 04</t>
   </si>
   <si>
     <t xml:space="preserve">Wolf Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek 04</t>
   </si>
 </sst>
 </file>
@@ -659,534 +653,462 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.711111111111111</v>
-      </c>
-      <c r="V2" t="n">
-        <v>5</v>
-      </c>
-      <c r="W2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>33</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.733333333333333</v>
-      </c>
-      <c r="V3" t="n">
-        <v>5</v>
-      </c>
-      <c r="W3" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T4" t="n">
-        <v>33</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.733333333333333</v>
-      </c>
-      <c r="V4" t="n">
-        <v>5</v>
-      </c>
-      <c r="W4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
         <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>0.725</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T5" t="n">
-        <v>33</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.733333333333333</v>
-      </c>
-      <c r="V5" t="n">
-        <v>5</v>
-      </c>
-      <c r="W5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
         <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
       </c>
       <c r="T6" t="n">
-        <v>34</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.755555555555556</v>
-      </c>
-      <c r="V6" t="n">
-        <v>5</v>
-      </c>
-      <c r="W6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>39</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.866666666666667</v>
-      </c>
-      <c r="V7" t="n">
-        <v>3</v>
-      </c>
-      <c r="W7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>0.85</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>35</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="V8" t="n">
-        <v>5</v>
-      </c>
-      <c r="W8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
         <v>5</v>
@@ -1195,69 +1117,60 @@
         <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
       </c>
       <c r="T9" t="n">
-        <v>37</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.822222222222222</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3</v>
-      </c>
-      <c r="W9" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
         <v>5</v>
@@ -1269,69 +1182,60 @@
         <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>34</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.755555555555556</v>
-      </c>
-      <c r="V10" t="n">
-        <v>5</v>
-      </c>
-      <c r="W10" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11" t="n">
         <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>5</v>
@@ -1343,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
@@ -1355,54 +1259,45 @@
         <v>5</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T11" t="n">
-        <v>38</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.844444444444444</v>
-      </c>
-      <c r="V11" t="n">
-        <v>3</v>
-      </c>
-      <c r="W11" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" t="n">
         <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
         <v>5</v>
@@ -1414,7 +1309,7 @@
         <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
@@ -1423,125 +1318,107 @@
         <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>0.85</v>
       </c>
       <c r="S12" t="n">
         <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>35</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="V12" t="n">
-        <v>5</v>
-      </c>
-      <c r="W12" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>0.775</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T13" t="n">
-        <v>32</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.711111111111111</v>
-      </c>
-      <c r="V13" t="n">
-        <v>5</v>
-      </c>
-      <c r="W13" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
@@ -1550,13 +1427,13 @@
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
@@ -1565,120 +1442,104 @@
         <v>3</v>
       </c>
       <c r="O14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T14" t="n">
-        <v>32</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.711111111111111</v>
-      </c>
-      <c r="V14" t="n">
-        <v>5</v>
-      </c>
-      <c r="W14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
       </c>
-      <c r="H15"/>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
       </c>
       <c r="T15" t="n">
-        <v>35</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="V15" t="n">
-        <v>5</v>
-      </c>
-      <c r="W15" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -1687,291 +1548,255 @@
         <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T16" t="n">
-        <v>35</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="V16" t="n">
-        <v>5</v>
-      </c>
-      <c r="W16" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G17" t="n">
         <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
       </c>
       <c r="T17" t="n">
-        <v>32</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.711111111111111</v>
-      </c>
-      <c r="V17" t="n">
-        <v>5</v>
-      </c>
-      <c r="W17" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G18" t="n">
         <v>5</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
         <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
         <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>0.775</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
       </c>
       <c r="T18" t="n">
-        <v>36</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V18" t="n">
-        <v>3</v>
-      </c>
-      <c r="W18" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5</v>
-      </c>
-      <c r="O19" t="n">
-        <v>5</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>0.725</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
       </c>
       <c r="T19" t="n">
-        <v>39</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.866666666666667</v>
-      </c>
-      <c r="V19" t="n">
-        <v>3</v>
-      </c>
-      <c r="W19" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
@@ -1980,69 +1805,60 @@
         <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>0.775</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
       </c>
       <c r="T20" t="n">
-        <v>33</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.733333333333333</v>
-      </c>
-      <c r="V20" t="n">
-        <v>5</v>
-      </c>
-      <c r="W20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
         <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>5</v>
@@ -2051,60 +1867,51 @@
         <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>0.85</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T21" t="n">
-        <v>33</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.733333333333333</v>
-      </c>
-      <c r="V21" t="n">
-        <v>5</v>
-      </c>
-      <c r="W21" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G22" t="n">
         <v>5</v>
@@ -2113,152 +1920,134 @@
         <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0.725</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>35</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="V22" t="n">
-        <v>5</v>
-      </c>
-      <c r="W22" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
         <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
         <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>0.725</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T23" t="n">
-        <v>36</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V23" t="n">
-        <v>3</v>
-      </c>
-      <c r="W23" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
         <v>5</v>
@@ -2267,125 +2056,111 @@
         <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>0.75</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T24" t="n">
-        <v>39</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.866666666666667</v>
-      </c>
-      <c r="V24" t="n">
-        <v>3</v>
-      </c>
-      <c r="W24" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
         <v>5</v>
       </c>
       <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5</v>
+      </c>
+      <c r="O25" t="n">
         <v>4</v>
       </c>
-      <c r="J25" t="n">
-        <v>5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5</v>
-      </c>
-      <c r="L25" t="n">
-        <v>5</v>
-      </c>
-      <c r="M25" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5</v>
-      </c>
-      <c r="O25" t="n">
-        <v>5</v>
-      </c>
       <c r="P25" t="n">
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="R25" t="n">
-        <v>3</v>
+        <v>0.825</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
-        <v>36</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V25" t="n">
-        <v>3</v>
-      </c>
-      <c r="W25" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26"/>
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
       <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26"/>
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
       <c r="G26" t="n">
         <v>5</v>
       </c>
@@ -2396,57 +2171,58 @@
         <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
-      </c>
-      <c r="K26"/>
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5</v>
+      </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
         <v>5</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
       </c>
-      <c r="Q26"/>
+      <c r="Q26" t="n">
+        <v>35</v>
+      </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>0.875</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
-      </c>
-      <c r="T26"/>
-      <c r="U26" t="n">
-        <v>0.872302720070069</v>
-      </c>
-      <c r="V26" t="n">
-        <v>3</v>
-      </c>
-      <c r="W26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27"/>
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
       <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27"/>
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>23</v>
+      </c>
       <c r="G27" t="n">
         <v>5</v>
       </c>
@@ -2457,258 +2233,204 @@
         <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
         <v>5</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
       </c>
-      <c r="Q27"/>
+      <c r="Q27" t="n">
+        <v>33</v>
+      </c>
       <c r="R27" t="n">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
-      </c>
-      <c r="T27"/>
-      <c r="U27" t="n">
-        <v>0.783016464016357</v>
-      </c>
-      <c r="V27" t="n">
-        <v>5</v>
-      </c>
-      <c r="W27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
         <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F28"/>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
         <v>5</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
         <v>5</v>
       </c>
-      <c r="K28" t="n">
-        <v>3</v>
-      </c>
+      <c r="K28"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="n">
-        <v>5</v>
-      </c>
-      <c r="O28" t="n">
-        <v>5</v>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
       </c>
       <c r="Q28"/>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>0.872302720070069</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
-      </c>
-      <c r="T28"/>
-      <c r="U28" t="n">
-        <v>0.789291793508043</v>
-      </c>
-      <c r="V28" t="n">
-        <v>5</v>
-      </c>
-      <c r="W28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
         <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>69</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F29"/>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
         <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>5</v>
       </c>
       <c r="K29"/>
       <c r="L29" t="n">
-        <v>3</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3</v>
-      </c>
-      <c r="O29" t="n">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="P29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q29"/>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>0.783016464016357</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
-      </c>
-      <c r="T29"/>
-      <c r="U29" t="n">
-        <v>1</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1</v>
-      </c>
-      <c r="W29" t="n">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="D30"/>
       <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F30"/>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>5</v>
       </c>
-      <c r="K30" t="n">
-        <v>5</v>
-      </c>
+      <c r="K30"/>
       <c r="L30" t="n">
         <v>5</v>
       </c>
-      <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="n">
-        <v>5</v>
-      </c>
-      <c r="O30" t="n">
-        <v>5</v>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
       </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q30"/>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>0.789291793508043</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
       </c>
       <c r="T30" t="n">
-        <v>43</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0.955555555555556</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1</v>
-      </c>
-      <c r="W30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D31"/>
       <c r="E31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F31"/>
       <c r="G31" t="n">
         <v>3</v>
       </c>
@@ -2721,73 +2443,56 @@
       <c r="J31" t="n">
         <v>5</v>
       </c>
-      <c r="K31" t="n">
-        <v>5</v>
-      </c>
+      <c r="K31"/>
       <c r="L31" t="n">
         <v>5</v>
       </c>
-      <c r="M31" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" t="n">
-        <v>5</v>
-      </c>
-      <c r="O31" t="n">
-        <v>5</v>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
       </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q31"/>
       <c r="R31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
       </c>
       <c r="T31" t="n">
-        <v>34</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0.755555555555556</v>
-      </c>
-      <c r="V31" t="n">
-        <v>5</v>
-      </c>
-      <c r="W31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
         <v>5</v>
@@ -2799,57 +2504,48 @@
         <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
         <v>5</v>
       </c>
       <c r="O32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>0.95</v>
       </c>
       <c r="S32" t="n">
         <v>1</v>
       </c>
       <c r="T32" t="n">
-        <v>34</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0.755555555555556</v>
-      </c>
-      <c r="V32" t="n">
-        <v>5</v>
-      </c>
-      <c r="W32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G33" t="n">
         <v>5</v>
@@ -2861,66 +2557,57 @@
         <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L33" t="n">
         <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="S33" t="n">
         <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>37</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0.822222222222222</v>
-      </c>
-      <c r="V33" t="n">
-        <v>3</v>
-      </c>
-      <c r="W33" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G34" t="n">
         <v>5</v>
@@ -2932,19 +2619,19 @@
         <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L34" t="n">
         <v>5</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O34" t="n">
         <v>3</v>
@@ -2953,51 +2640,42 @@
         <v>1</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T34" t="n">
-        <v>37</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0.822222222222222</v>
-      </c>
-      <c r="V34" t="n">
-        <v>3</v>
-      </c>
-      <c r="W34" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G35" t="n">
         <v>5</v>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>5</v>
@@ -3006,13 +2684,13 @@
         <v>5</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
         <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
         <v>5</v>
@@ -3021,54 +2699,45 @@
         <v>3</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q35" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T35" t="n">
-        <v>37</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0.822222222222222</v>
-      </c>
-      <c r="V35" t="n">
-        <v>3</v>
-      </c>
-      <c r="W35" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G36" t="n">
         <v>5</v>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>5</v>
@@ -3077,69 +2746,60 @@
         <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="R36" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T36" t="n">
-        <v>38</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0.844444444444444</v>
-      </c>
-      <c r="V36" t="n">
-        <v>3</v>
-      </c>
-      <c r="W36" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>5</v>
@@ -3151,66 +2811,57 @@
         <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
         <v>5</v>
       </c>
       <c r="O37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="R37" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T37" t="n">
-        <v>35</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="V37" t="n">
-        <v>5</v>
-      </c>
-      <c r="W37" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G38" t="n">
         <v>5</v>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>5</v>
@@ -3222,110 +2873,154 @@
         <v>3</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="R38" t="n">
-        <v>4</v>
+        <v>0.825</v>
       </c>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T38" t="n">
-        <v>32</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0.711111111111111</v>
-      </c>
-      <c r="V38" t="n">
-        <v>5</v>
-      </c>
-      <c r="W38" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5</v>
+      </c>
+      <c r="O39" t="n">
+        <v>5</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>32</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
         <v>26</v>
       </c>
-      <c r="E39" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" t="n">
-        <v>5</v>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-      <c r="I39" t="n">
-        <v>5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>5</v>
-      </c>
-      <c r="K39" t="n">
-        <v>3</v>
-      </c>
-      <c r="L39" t="n">
-        <v>5</v>
-      </c>
-      <c r="M39" t="n">
-        <v>5</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" t="n">
-        <v>5</v>
-      </c>
-      <c r="P39" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
-      <c r="T39" t="n">
-        <v>37</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0.822222222222222</v>
-      </c>
-      <c r="V39" t="n">
-        <v>3</v>
-      </c>
-      <c r="W39" t="n">
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>5</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>32</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="n">
         <v>3</v>
       </c>
     </row>
